--- a/sacvegozrengi.xlsx
+++ b/sacvegozrengi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="9">
   <si>
     <t>Siyah</t>
   </si>
@@ -379,13 +379,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B597"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A333" sqref="A333:B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3605,103 +3608,103 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B403" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B404" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B405" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B406" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B407" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B408" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B409" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B411" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B413" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B414" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B415" t="s">
         <v>4</v>
@@ -3709,7 +3712,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B416" t="s">
         <v>4</v>
@@ -3717,7 +3720,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B417" t="s">
         <v>4</v>
@@ -3725,7 +3728,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B418" t="s">
         <v>4</v>
@@ -3733,7 +3736,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B419" t="s">
         <v>4</v>
@@ -3741,7 +3744,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B420" t="s">
         <v>4</v>
@@ -3749,7 +3752,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B421" t="s">
         <v>4</v>
@@ -3757,7 +3760,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B422" t="s">
         <v>4</v>
@@ -3765,7 +3768,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B423" t="s">
         <v>4</v>
@@ -3949,7 +3952,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B446" t="s">
         <v>4</v>
@@ -3957,7 +3960,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B447" t="s">
         <v>4</v>
@@ -3965,7 +3968,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B448" t="s">
         <v>4</v>
@@ -3973,7 +3976,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B449" t="s">
         <v>4</v>
@@ -3981,7 +3984,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B450" t="s">
         <v>4</v>
@@ -3989,7 +3992,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B451" t="s">
         <v>4</v>
@@ -3997,7 +4000,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B452" t="s">
         <v>4</v>
@@ -4005,7 +4008,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B453" t="s">
         <v>4</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B454" t="s">
         <v>4</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B455" t="s">
         <v>4</v>
@@ -4029,7 +4032,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B456" t="s">
         <v>4</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B457" t="s">
         <v>4</v>
@@ -4045,7 +4048,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B458" t="s">
         <v>4</v>
@@ -4053,7 +4056,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B459" t="s">
         <v>4</v>
@@ -4061,7 +4064,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B460" t="s">
         <v>4</v>
@@ -4069,7 +4072,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B461" t="s">
         <v>4</v>
@@ -4077,7 +4080,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B462" t="s">
         <v>4</v>
@@ -4085,7 +4088,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B463" t="s">
         <v>4</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B464" t="s">
         <v>4</v>
@@ -4517,103 +4520,103 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B517" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B518" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B519" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B520" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B521" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B522" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B523" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B524" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B525" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B526" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B527" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B528" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B529" t="s">
         <v>5</v>
@@ -4621,7 +4624,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B530" t="s">
         <v>5</v>
@@ -4629,7 +4632,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B531" t="s">
         <v>5</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B532" t="s">
         <v>5</v>
@@ -4645,7 +4648,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B533" t="s">
         <v>5</v>
@@ -4789,7 +4792,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B551" t="s">
         <v>5</v>
@@ -4797,7 +4800,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B552" t="s">
         <v>5</v>
@@ -4805,7 +4808,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B553" t="s">
         <v>5</v>
@@ -4813,7 +4816,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B554" t="s">
         <v>5</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B555" t="s">
         <v>5</v>
@@ -4829,7 +4832,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B556" t="s">
         <v>5</v>
@@ -4837,7 +4840,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B557" t="s">
         <v>5</v>
@@ -4845,7 +4848,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B558" t="s">
         <v>5</v>
@@ -4853,7 +4856,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B559" t="s">
         <v>5</v>
@@ -4861,7 +4864,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B560" t="s">
         <v>5</v>
@@ -4869,7 +4872,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B561" t="s">
         <v>5</v>
@@ -4877,7 +4880,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B562" t="s">
         <v>5</v>
@@ -4885,103 +4888,103 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B563" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B564" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B565" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B566" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B567" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B568" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B569" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B570" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B571" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B572" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B573" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B574" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B575" t="s">
         <v>6</v>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B576" t="s">
         <v>6</v>
@@ -5013,7 +5016,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B579" t="s">
         <v>6</v>
@@ -5021,7 +5024,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B580" t="s">
         <v>6</v>
@@ -5029,7 +5032,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B581" t="s">
         <v>6</v>
@@ -5037,7 +5040,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B582" t="s">
         <v>6</v>
@@ -5045,7 +5048,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B583" t="s">
         <v>6</v>
@@ -5053,7 +5056,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B584" t="s">
         <v>6</v>
@@ -5061,9 +5064,105 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B585" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>1</v>
+      </c>
+      <c r="B586" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>1</v>
+      </c>
+      <c r="B587" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>1</v>
+      </c>
+      <c r="B588" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>1</v>
+      </c>
+      <c r="B589" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>1</v>
+      </c>
+      <c r="B590" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>2</v>
+      </c>
+      <c r="B591" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>2</v>
+      </c>
+      <c r="B592" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>2</v>
+      </c>
+      <c r="B593" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>2</v>
+      </c>
+      <c r="B594" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>2</v>
+      </c>
+      <c r="B595" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>2</v>
+      </c>
+      <c r="B596" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>2</v>
+      </c>
+      <c r="B597" t="s">
         <v>6</v>
       </c>
     </row>
